--- a/HJA_scripts/08_reference_sequences_datasets/pa_vs_qp_tables_20210128.xlsx
+++ b/HJA_scripts/08_reference_sequences_datasets/pa_vs_qp_tables_20210128.xlsx
@@ -1,103 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Negorashi2011/Dropbox/Working_docs/Luo_Mingjie_Oregon/HJA_analyses_Kelpie/HJA_scripts/08_reference_sequences_datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3A3E52-070B-F848-9EE8-5A471D9EEF7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DB6E88-3D3B-3A40-8C4F-5D50D9E0515D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{53C8B974-4F2E-7B4E-B4C5-DAE879BD5093}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$4:$C$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$D$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$D$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$4:$D$7</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$E$3</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$E$4:$E$7</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$F$3</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$F$4:$F$7</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$G$3</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$G$4:$G$7</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$C$4:$C$7</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$D$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$4:$D$7</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$D$4:$D$7</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$E$3</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$E$4:$E$7</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$F$3</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$F$4:$F$7</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$G$3</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$G$4:$G$7</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$C$4:$C$7</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$D$3</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$D$4:$D$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$3</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$E$3</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$E$4:$E$7</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$F$3</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$F$4:$F$7</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$G$3</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$G$4:$G$7</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$C$4:$C$7</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$D$3</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$D$4:$D$7</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$E$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$E$4:$E$7</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$E$4:$E$7</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$F$3</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$F$4:$F$7</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$G$3</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$G$4:$G$7</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$C$4:$C$7</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$D$3</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$D$4:$D$7</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$E$3</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$E$4:$E$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$F$3</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Sheet1!$F$3</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Sheet1!$F$4:$F$7</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Sheet1!$G$3</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Sheet1!$G$4:$G$7</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Sheet1!$C$4:$C$7</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Sheet1!$D$3</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Sheet1!$D$4:$D$7</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Sheet1!$E$3</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Sheet1!$E$4:$E$7</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Sheet1!$F$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$F$4:$F$7</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Sheet1!$F$4:$F$7</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Sheet1!$G$3</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Sheet1!$G$4:$G$7</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Sheet1!$C$4:$C$7</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Sheet1!$D$3</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Sheet1!$D$4:$D$7</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Sheet1!$E$3</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Sheet1!$E$4:$E$7</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Sheet1!$F$3</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Sheet1!$F$4:$F$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$G$3</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Sheet1!$G$3</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">Sheet1!$G$4:$G$7</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">Sheet1!$C$4:$C$7</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">Sheet1!$D$3</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">Sheet1!$D$4:$D$7</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">Sheet1!$E$3</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">Sheet1!$E$4:$E$7</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">Sheet1!$F$3</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">Sheet1!$F$4:$F$7</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">Sheet1!$G$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$G$4:$G$7</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">Sheet1!$G$4:$G$7</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$4:$C$7</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -227,13 +144,7 @@
     <t>A. QP distribution data for one species</t>
   </si>
   <si>
-    <t>Species shows a preference for grey</t>
-  </si>
-  <si>
     <t>Species shows a preference for green</t>
-  </si>
-  <si>
-    <t>Potential importance of preserving within-species frequency information</t>
   </si>
   <si>
     <t>2b. Observed OTU table, divided by observed rowSum</t>
@@ -348,6 +259,12 @@
   </si>
   <si>
     <t>quasiprobability == normalise from 0 to 1</t>
+  </si>
+  <si>
+    <t>Species incorrectly shows a preference for grey</t>
+  </si>
+  <si>
+    <t>Potential importance of QP data, which preserves within-species frequency information</t>
   </si>
 </sst>
 </file>
@@ -786,30 +703,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -819,9 +712,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -836,6 +726,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1282,6 +1199,7 @@
         <c:axId val="1680439311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1546,16 +1464,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>480</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2880</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1620,13 +1538,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>120</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>360</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1697,13 +1615,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>720</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1771,13 +1689,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1200</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1856,6 +1774,7 @@
         <c:axId val="1742493311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2431,6 +2350,7 @@
         <c:axId val="1738207791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3008,6 +2928,7 @@
         <c:axId val="1744111919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3175,7 +3096,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>3. Spike-corrected OTU table</a:t>
+              <a:t>3. Spike-corrected OTU table (row noise removed)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3268,16 +3189,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3342,13 +3263,13 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3419,13 +3340,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3493,13 +3414,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3745,7 +3666,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>4.  Spike-corrected OTU table, QP transformed</a:t>
+              <a:t>4.  Spike-corrected OTU table, QP normalised</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4148,6 +4069,7 @@
         <c:axId val="1785311615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4254,7 +4176,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:srgbClr val="0070C0"/>
       </a:solidFill>
@@ -4718,6 +4640,7 @@
         <c:axId val="1786357455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4735,7 +4658,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4890,7 +4813,17 @@
               <a:rPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>1a. True OTU table, QP transformed</a:t>
+              <a:t>1a. True OTU table, QP </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>normalised</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
             </a:r>
             <a:endParaRPr lang="en-GB" sz="1400">
               <a:effectLst/>
@@ -5296,6 +5229,7 @@
         <c:axId val="1738443103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5556,16 +5490,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47058823529411764</c:v>
+                  <c:v>0.57553956834532372</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6</c:v>
+                  <c:v>0.55045871559633031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5630,13 +5564,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76923076923076927</c:v>
+                  <c:v>0.43478260869565216</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35294117647058826</c:v>
+                  <c:v>0.11510791366906475</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -5707,13 +5641,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10256410256410256</c:v>
+                  <c:v>0.13043478260869565</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9411764705882353E-2</c:v>
+                  <c:v>2.1582733812949641E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15</c:v>
+                  <c:v>8.2568807339449546E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5781,13 +5715,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12820512820512819</c:v>
+                  <c:v>0.43478260869565216</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14705882352941177</c:v>
+                  <c:v>0.28776978417266186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25</c:v>
+                  <c:v>0.3669724770642202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5866,6 +5800,7 @@
         <c:axId val="1744227471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -12581,8 +12516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF64AE32-F5AF-E840-B10C-98CC4787FA60}">
   <dimension ref="A1:AN46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AJ32" sqref="AJ32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM29" sqref="AM29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12602,7 +12537,8 @@
     <col min="19" max="22" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" customWidth="1"/>
     <col min="24" max="24" width="7" customWidth="1"/>
-    <col min="25" max="28" width="9.1640625" customWidth="1"/>
+    <col min="25" max="27" width="9.1640625" customWidth="1"/>
+    <col min="28" max="28" width="12.1640625" customWidth="1"/>
     <col min="39" max="39" width="11.83203125" customWidth="1"/>
     <col min="40" max="40" width="10.83203125" customWidth="1"/>
   </cols>
@@ -12624,48 +12560,48 @@
     <row r="2" spans="2:40" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="55"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="68"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="53" t="s">
+      <c r="S2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
       <c r="W2" s="28"/>
     </row>
     <row r="3" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="55"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="68"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="R3" s="11"/>
@@ -12682,21 +12618,21 @@
         <v>3</v>
       </c>
       <c r="W3" s="9"/>
-      <c r="AI3" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
+      <c r="AI3" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="51"/>
     </row>
     <row r="4" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>
       <c r="C4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="68">
+      <c r="D4" s="59">
         <v>10</v>
       </c>
       <c r="E4" s="1">
@@ -12705,10 +12641,10 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="69">
+      <c r="G4" s="60">
         <v>0</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="55">
         <v>20</v>
       </c>
       <c r="I4" s="30">
@@ -12718,7 +12654,7 @@
       <c r="J4" s="48"/>
       <c r="K4" s="23"/>
       <c r="L4" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M4" s="4"/>
       <c r="Q4" s="19"/>
@@ -12746,21 +12682,21 @@
       <c r="Y4" s="27"/>
       <c r="Z4" s="27"/>
       <c r="AA4" s="27"/>
-      <c r="AI4" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="59"/>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
+      <c r="AI4" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
     </row>
     <row r="5" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="59">
         <v>0</v>
       </c>
       <c r="E5" s="1">
@@ -12769,10 +12705,10 @@
       <c r="F5" s="1">
         <v>20</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G5" s="60">
         <v>50</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="55">
         <v>20</v>
       </c>
       <c r="I5" s="30">
@@ -12810,21 +12746,21 @@
       <c r="Y5" s="27"/>
       <c r="Z5" s="27"/>
       <c r="AA5" s="27"/>
-      <c r="AI5" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="59"/>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="59"/>
-      <c r="AN5" s="59"/>
+      <c r="AI5" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="51"/>
+      <c r="AL5" s="51"/>
+      <c r="AM5" s="51"/>
+      <c r="AN5" s="51"/>
     </row>
     <row r="6" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="C6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="59">
         <v>40</v>
       </c>
       <c r="E6" s="1">
@@ -12833,10 +12769,10 @@
       <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="60">
         <v>50</v>
       </c>
-      <c r="H6" s="63">
+      <c r="H6" s="55">
         <v>20</v>
       </c>
       <c r="I6" s="30">
@@ -12846,7 +12782,7 @@
       <c r="J6" s="48"/>
       <c r="K6" s="23"/>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M6" s="27"/>
       <c r="Q6" s="19"/>
@@ -12874,33 +12810,33 @@
       <c r="Y6" s="27"/>
       <c r="Z6" s="27"/>
       <c r="AA6" s="27"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="59"/>
-      <c r="AM6" s="59"/>
-      <c r="AN6" s="59"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
     </row>
     <row r="7" spans="2:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="70">
+      <c r="D7" s="61">
         <v>60</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="62">
         <v>0</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="62">
         <v>30</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="63">
         <v>100</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H7" s="55">
         <v>20</v>
       </c>
       <c r="I7" s="30">
@@ -12936,12 +12872,12 @@
       <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
       <c r="AA7" s="27"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="59"/>
-      <c r="AL7" s="59"/>
-      <c r="AM7" s="59"/>
-      <c r="AN7" s="59"/>
+      <c r="AI7" s="51"/>
+      <c r="AJ7" s="51"/>
+      <c r="AK7" s="51"/>
+      <c r="AL7" s="51"/>
+      <c r="AM7" s="51"/>
+      <c r="AN7" s="51"/>
     </row>
     <row r="8" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
@@ -12959,14 +12895,14 @@
       <c r="S8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AI8" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ8" s="60"/>
-      <c r="AK8" s="59"/>
-      <c r="AL8" s="59"/>
-      <c r="AM8" s="59"/>
-      <c r="AN8" s="59"/>
+      <c r="AI8" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ8" s="52"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="51"/>
+      <c r="AN8" s="51"/>
     </row>
     <row r="9" spans="2:40" x14ac:dyDescent="0.2">
       <c r="J9" s="18"/>
@@ -12976,14 +12912,14 @@
       <c r="X9" s="11"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
-      <c r="AI9" s="59"/>
-      <c r="AJ9" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK9" s="60"/>
-      <c r="AL9" s="59"/>
-      <c r="AM9" s="59"/>
-      <c r="AN9" s="59"/>
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="51"/>
     </row>
     <row r="10" spans="2:40" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="J10" s="18"/>
@@ -12992,45 +12928,45 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="X10" s="11"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="59"/>
-      <c r="AK10" s="59"/>
-      <c r="AL10" s="59"/>
-      <c r="AM10" s="59"/>
-      <c r="AN10" s="59"/>
+      <c r="AI10" s="51"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="51"/>
+      <c r="AL10" s="51"/>
+      <c r="AM10" s="51"/>
+      <c r="AN10" s="51"/>
     </row>
     <row r="11" spans="2:40" s="5" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="54" t="s">
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="52" t="s">
+      <c r="J11" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="51" t="s">
+      <c r="M11" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="S11" s="51" t="s">
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="S11" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="Y11" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="58"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="Y11" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="66"/>
     </row>
     <row r="12" spans="2:40" x14ac:dyDescent="0.2">
       <c r="D12" s="24" t="s">
@@ -13048,8 +12984,8 @@
       <c r="H12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="52"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="69"/>
       <c r="M12" s="24" t="s">
         <v>0</v>
       </c>
@@ -13087,11 +13023,11 @@
       </c>
       <c r="D13" s="3">
         <f>D4*D$17*$I13</f>
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ref="D13:G16" si="3">E4*E$17*$I13</f>
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="3"/>
@@ -13103,14 +13039,14 @@
       </c>
       <c r="H13" s="3">
         <f>H4*I13*H$17</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I13" s="26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J13" s="30">
         <f>SUM(D13:G13)</f>
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>8</v>
@@ -13120,11 +13056,11 @@
       </c>
       <c r="M13" s="3">
         <f>(D13/$H13)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N13" s="3">
         <f>(E13/$H13)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O13" s="3">
         <f>(F13/$H13)</f>
@@ -13157,7 +13093,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z13" s="41"/>
       <c r="AA13" s="41"/>
@@ -13173,15 +13109,15 @@
       </c>
       <c r="E14" s="3">
         <f t="shared" si="3"/>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="3">
         <f>F5*F$17*$I14</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G14" s="3">
         <f>G5*G$17*$I14</f>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="3">
         <f>H5*I14*H$17</f>
@@ -13192,7 +13128,7 @@
       </c>
       <c r="J14" s="30">
         <f>SUM(D14:G14)</f>
-        <v>1950</v>
+        <v>2300</v>
       </c>
       <c r="L14" s="49" t="s">
         <v>9</v>
@@ -13203,15 +13139,15 @@
       </c>
       <c r="N14" s="3">
         <f t="shared" ref="N14:P16" si="6">(E14/$H14)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O14" s="3">
         <f>(F14/$H14)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R14" s="49" t="s">
         <v>9</v>
@@ -13245,19 +13181,19 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="3"/>
-        <v>480</v>
+        <v>1200</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="3"/>
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="F15" s="3">
         <f>F6*F$17*$I15</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="H15" s="3">
         <f>H6*I15*H$17</f>
@@ -13268,7 +13204,7 @@
       </c>
       <c r="J15" s="30">
         <f>SUM(D15:G15)</f>
-        <v>1020</v>
+        <v>2085</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>18</v>
@@ -13278,19 +13214,19 @@
       </c>
       <c r="M15" s="3">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O15" s="2">
         <f>(F15/$H15)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R15" s="49" t="s">
         <v>10</v>
@@ -13328,7 +13264,7 @@
       </c>
       <c r="D16" s="3">
         <f t="shared" si="3"/>
-        <v>2880</v>
+        <v>600</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="3"/>
@@ -13336,22 +13272,22 @@
       </c>
       <c r="F16" s="3">
         <f>F7*F$17*$I16</f>
-        <v>720</v>
+        <v>90</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="3"/>
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="H16" s="3">
         <f>H7*I16*H$17</f>
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="I16" s="26">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J16" s="30">
         <f>SUM(D16:G16)</f>
-        <v>4800</v>
+        <v>1090</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="49" t="s">
@@ -13359,7 +13295,7 @@
       </c>
       <c r="M16" s="3">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="6"/>
@@ -13367,11 +13303,11 @@
       </c>
       <c r="O16" s="3">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P16" s="3">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="R16" s="49" t="s">
         <v>11</v>
@@ -13408,16 +13344,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="7">
+        <v>10</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>3</v>
+      </c>
+      <c r="G17" s="7">
         <v>4</v>
-      </c>
-      <c r="E17" s="7">
-        <v>3</v>
-      </c>
-      <c r="F17" s="7">
-        <v>2</v>
-      </c>
-      <c r="G17" s="7">
-        <v>1</v>
       </c>
       <c r="H17" s="7">
         <v>0.5</v>
@@ -13452,11 +13388,11 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="K18" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R18" s="9"/>
       <c r="Y18" s="21"/>
@@ -13469,11 +13405,11 @@
         <v>6</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L19" s="19"/>
       <c r="M19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R19" s="19"/>
       <c r="Y19" s="44" t="s">
@@ -13495,20 +13431,20 @@
       <c r="AB20" s="42"/>
     </row>
     <row r="21" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="S21" s="51" t="s">
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="S21" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="52" t="s">
-        <v>35</v>
+      <c r="T21" s="67"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="69" t="s">
+        <v>33</v>
       </c>
       <c r="Y21" s="21" t="s">
         <v>28</v>
@@ -13542,9 +13478,9 @@
       <c r="V22" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="W22" s="52"/>
+      <c r="W22" s="69"/>
       <c r="Y22" s="43" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
@@ -13801,7 +13737,7 @@
       <c r="B28" s="8"/>
       <c r="C28" s="11"/>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -13834,21 +13770,21 @@
     <row r="30" spans="1:28" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="8"/>
       <c r="C30" s="11"/>
-      <c r="D30" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
+      <c r="D30" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
       <c r="R30" s="11"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
@@ -13884,11 +13820,11 @@
       </c>
       <c r="D32" s="25">
         <f>D13/$J13</f>
-        <v>0.4</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E32" s="25">
         <f t="shared" ref="E32:G32" si="10">E13/$J13</f>
-        <v>0.6</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F32" s="25">
         <f t="shared" si="10"/>
@@ -13919,15 +13855,15 @@
       </c>
       <c r="E33" s="25">
         <f t="shared" si="11"/>
-        <v>0.76923076923076927</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="F33" s="25">
         <f t="shared" si="11"/>
-        <v>0.10256410256410256</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="G33" s="25">
         <f t="shared" si="11"/>
-        <v>0.12820512820512819</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
@@ -13940,19 +13876,19 @@
       </c>
       <c r="D34" s="25">
         <f t="shared" si="11"/>
-        <v>0.47058823529411764</v>
+        <v>0.57553956834532372</v>
       </c>
       <c r="E34" s="25">
         <f t="shared" si="11"/>
-        <v>0.35294117647058826</v>
+        <v>0.11510791366906475</v>
       </c>
       <c r="F34" s="25">
         <f t="shared" si="11"/>
-        <v>2.9411764705882353E-2</v>
+        <v>2.1582733812949641E-2</v>
       </c>
       <c r="G34" s="25">
         <f t="shared" si="11"/>
-        <v>0.14705882352941177</v>
+        <v>0.28776978417266186</v>
       </c>
       <c r="M34" s="47"/>
       <c r="N34" s="47"/>
@@ -13965,7 +13901,7 @@
       </c>
       <c r="D35" s="25">
         <f t="shared" si="11"/>
-        <v>0.6</v>
+        <v>0.55045871559633031</v>
       </c>
       <c r="E35" s="25">
         <f t="shared" si="11"/>
@@ -13973,11 +13909,11 @@
       </c>
       <c r="F35" s="25">
         <f t="shared" si="11"/>
-        <v>0.15</v>
+        <v>8.2568807339449546E-2</v>
       </c>
       <c r="G35" s="25">
         <f t="shared" si="11"/>
-        <v>0.25</v>
+        <v>0.3669724770642202</v>
       </c>
       <c r="M35" s="47"/>
       <c r="N35" s="13"/>
@@ -13997,12 +13933,12 @@
       <c r="P36" s="11"/>
     </row>
     <row r="39" spans="3:16" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D39" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
+      <c r="D39" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D40" s="24" t="s">
@@ -14096,11 +14032,18 @@
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="Y11:AB11"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="M11:P11"/>
@@ -14110,13 +14053,6 @@
     <mergeCell ref="S21:V21"/>
     <mergeCell ref="S11:V11"/>
     <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HJA_scripts/08_reference_sequences_datasets/pa_vs_qp_tables_20210128.xlsx
+++ b/HJA_scripts/08_reference_sequences_datasets/pa_vs_qp_tables_20210128.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Negorashi2011/Dropbox/Working_docs/Luo_Mingjie_Oregon/HJA_analyses_Kelpie/HJA_scripts/08_reference_sequences_datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DB6E88-3D3B-3A40-8C4F-5D50D9E0515D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C16D0C-1412-9A4A-94F7-D25DD80C0498}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{53C8B974-4F2E-7B4E-B4C5-DAE879BD5093}"/>
   </bookViews>
@@ -726,6 +726,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -734,24 +752,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11213,8 +11213,8 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>296334</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>10584</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167466</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1554080" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -11230,7 +11230,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="899584" y="2021417"/>
+          <a:off x="901452" y="1796054"/>
           <a:ext cx="1554080" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12516,8 +12516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF64AE32-F5AF-E840-B10C-98CC4787FA60}">
   <dimension ref="A1:AN46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM29" sqref="AM29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12560,26 +12560,26 @@
     <row r="2" spans="2:40" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="69" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="68"/>
+      <c r="J2" s="69"/>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="71" t="s">
+      <c r="S2" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
       <c r="W2" s="28"/>
     </row>
     <row r="3" spans="2:40" x14ac:dyDescent="0.2">
@@ -12600,8 +12600,8 @@
       <c r="H3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="68"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="R3" s="11"/>
@@ -12936,37 +12936,37 @@
       <c r="AN10" s="51"/>
     </row>
     <row r="11" spans="2:40" s="5" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="72" t="s">
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="67" t="s">
+      <c r="M11" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="S11" s="67" t="s">
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="S11" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="Y11" s="64" t="s">
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="Y11" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="66"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="72"/>
     </row>
     <row r="12" spans="2:40" x14ac:dyDescent="0.2">
       <c r="D12" s="24" t="s">
@@ -12984,8 +12984,8 @@
       <c r="H12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="72"/>
-      <c r="J12" s="69"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="66"/>
       <c r="M12" s="24" t="s">
         <v>0</v>
       </c>
@@ -13431,19 +13431,19 @@
       <c r="AB20" s="42"/>
     </row>
     <row r="21" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="S21" s="67" t="s">
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="S21" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="T21" s="67"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="67"/>
-      <c r="W21" s="69" t="s">
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="66" t="s">
         <v>33</v>
       </c>
       <c r="Y21" s="21" t="s">
@@ -13478,7 +13478,7 @@
       <c r="V22" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="W22" s="69"/>
+      <c r="W22" s="66"/>
       <c r="Y22" s="43" t="s">
         <v>49</v>
       </c>
@@ -13770,21 +13770,21 @@
     <row r="30" spans="1:28" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="8"/>
       <c r="C30" s="11"/>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
       <c r="R30" s="11"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
@@ -13933,12 +13933,12 @@
       <c r="P36" s="11"/>
     </row>
     <row r="39" spans="3:16" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D39" s="67" t="s">
+      <c r="D39" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D40" s="24" t="s">
@@ -14037,13 +14037,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J2:J3"/>
     <mergeCell ref="Y11:AB11"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="M11:P11"/>
@@ -14053,6 +14046,13 @@
     <mergeCell ref="S21:V21"/>
     <mergeCell ref="S11:V11"/>
     <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
